--- a/outputs/PITTSBURG5.xlsx
+++ b/outputs/PITTSBURG5.xlsx
@@ -425,17 +425,17 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The image displays a project details page with a variety of files and options, but it does not clearly indicate where to find a list of issues. Abi, who prefers clear guidance and step-by-step instructions due to her low computer self-efficacy and process-oriented learning style, might not immediately recognize this page as the place to find issues. There's no explicit mention or link related to issues on this page, which could lead her to feel uncertain about how to proceed.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The page shown is a project details page with various files and information about the project. There is no clear indication or section specifically labeled for "issues" or "bugs" that would guide Abi to find a list of issues. Given Abi's preference for familiar methods and comprehensive information processing style, they might not immediately think to look here for issues. Additionally, Abi's low computer self-efficacy might make them hesitant to explore unfamiliar sections without clear guidance.</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 1. Motivations, 4. Computer Self-Efficacy, 5. Learning Style
-Why: The current page mainly lists files and directories, and while scrolling down might reveal more content, there is no clear indication or instruction that scrolling will lead to finding the list of issues. Abi, who has low computer self-efficacy and prefers clear, step-by-step guidance, may not feel confident that scrolling will help her achieve her goal of finding issues. Additionally, due to her comprehensive information processing style, Abi might be hesitant to take action without more explicit cues, making it unlikely she will think to scroll down as the next step.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather information comprehensively before acting, and scrolling down is a natural action to gather more information. The page layout suggests that more information might be available below, so Abi would likely know to scroll down to see if there are additional sections or details that could help them find the list of issues.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 4. Computer Self-Efficacy, 5. Learning Style
-Why: If Abi scrolls down the webpage, she will still be on the same page displaying project details, files, and some descriptive text about the project. There is no additional information about issues or where to find them. This lack of clear guidance and actionable information can lead Abi, who relies on step-by-step instructions and has low computer self-efficacy, to feel uncertain about her progress toward finding the list of issues. Therefore, she might not realize she is making progress toward her goal or feel confident that she is on the right track.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find any additional information or sections specifically related to issues or bugs. The page primarily contains project details, files, and a description of the project. There is no clear indication or section for issues, which means Abi will not know if they are making progress toward their goal of finding a list of issues. Given Abi's comprehensive information processing style and low computer self-efficacy, the lack of clear guidance or relevant information will likely leave them uncertain and frustrated.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: NO
 Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left sidebar is not explicitly labeled, and Abi, who has low computer self-efficacy and prefers clear, step-by-step instructions, might not recognize the icon as the place to find issues. Additionally, without specific instructions or visible text indicating that clicking the icon will lead to a list of issues, Abi may feel uncertain about taking this action. This uncertainty makes it less likely that Abi will confidently click on the issue icon to find the list of issues.</t>
+Why: The issue icon on the left side is not explicitly labeled, and there is no clear indication on the page about what it does. Given Abi's low computer self-efficacy, they might be hesitant to click on an unfamiliar icon without clear guidance. Additionally, Abi prefers process-oriented learning and might not feel confident in clicking on an icon without knowing its purpose. The page does not provide enough information for Abi to confidently take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 4. Computer Self-Efficacy
-Why: After clicking on the issue icon, Abi will be taken to a page that clearly lists issues with relevant details such as titles, tags, and dates. This page aligns well with Abi's motivation to find a list of issues to work on. The straightforward presentation of the issues will help Abi understand that she has made progress toward her goal. The list format with clear labels and tags provides comprehensive information, which supports Abi's need for clarity and detailed information, thus boosting her confidence and making her feel that she has done the right thing.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the issue icon, Abi will land on a page that clearly lists issues with relevant details such as titles, importance, and status. This page provides comprehensive information that aligns with Abi's information processing style, allowing them to see a list of issues and make progress toward their goal. The clear layout and detailed information will help Abi understand that they are on the right track and have found the list of issues they were looking for.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues with detailed descriptions, tags, and dates, which aligns well with Abi's motivation to find an issue to work on. This information is presented in a format that allows for comprehensive processing, which suits Abi's information processing style. Given that Abi wants to find and work on an issue, she will likely see selecting an issue from this list as a necessary step toward achieving her overall goal.</t>
+Why: The page clearly lists various issues with details such as titles, importance, and status. Given Abi's motivation to find an issue to work on and their comprehensive information processing style, they would recognize that selecting an issue from this list is a logical step toward achieving their overall use case. The detailed and organized presentation of issues aligns with Abi's need for comprehensive information, making it clear that this is the next step in the process.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page provides a clear, detailed list of issues with descriptions, tags, and dates, which aligns well with Abi's comprehensive information processing style. This format allows her to read through and understand the issues thoroughly before making a decision. Additionally, the structured presentation of information supports Abi's process-oriented learning style, enabling her to know what to do at this step (i.e., reading through the list to select an issue). The page is well-organized and provides enough information for Abi to take this action confidently.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page is well-organized and lists issues with clear titles, importance, and status, making it easy for Abi to read through the list. Given Abi's comprehensive information processing style, they will know to read through the list to gather information before selecting an issue to work on. The detailed presentation of issues aligns with Abi's motivation to find an issue to work on, making it clear that reading through the list is the appropriate next step.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page provides a clear and structured list of issues with detailed information such as titles, dates, tags, and descriptions. This aligns well with Abi's motivation to find an issue to work on and supports her comprehensive information processing style. By reading through the list, Abi can gather all the necessary information to make an informed decision about which issue to select. This process will help her feel confident that she is making progress toward her goal of finding an issue to work on, and the detailed information provided ensures she has what she needs to proceed.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page provides a clear and detailed list of issues, including titles, importance, and status. As Abi reads through the list, they will be able to gather comprehensive information about each issue, which aligns with their information processing style. The detailed presentation will help Abi understand that they are making progress toward their goal of selecting an issue to work on. The information provided is sufficient for Abi to make an informed decision, ensuring they feel confident that they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists issues with detailed information, including titles, tags, dates, and descriptions. This structured presentation helps Abi understand that she needs to click on an issue to get more details. Abi's motivation to find an issue to work on aligns with this action, and her comprehensive information processing style supports reading through the list and selecting an issue. The design and layout of the page make it intuitive for Abi to know that clicking on an issue is the next step to gather more information and proceed towards her goal.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists issues with clickable titles, which is a common and intuitive design pattern for selecting items. Given Abi's comprehensive information processing style, they will understand that clicking on an issue title will provide more details about that issue. The page layout and design make it clear that clicking on an issue is the next logical step in selecting an issue to work on, aligning with Abi's motivation to find and work on an issue.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page that provides some details about the issue but lacks comprehensive information. Important details such as the issue description, steps to reproduce, expected behavior, and other relevant data are missing or minimal. This might make Abi uncertain about whether she has selected the right issue to work on and if she is making progress toward her goal. Given Abi's comprehensive information processing style, she might feel that the information is insufficient to understand the issue fully. Additionally, with her low computer self-efficacy, she might not feel confident in proceeding without all the necessary details.</t>
+Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page does not provide comprehensive details about the issue, such as a detailed description, steps to reproduce, or any relevant context. Given Abi's comprehensive information processing style, they will not feel confident that they have all the information they need to understand the issue fully. Additionally, Abi's low computer self-efficacy might make them hesitant to proceed without clear and detailed information, leaving them uncertain about whether they are making progress toward their goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG5.xlsx
+++ b/outputs/PITTSBURG5.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page shown is a repository page with a list of files and some information about the project. ABI is looking to find a list of issues or where issues are located. This page does not explicitly indicate where to find issues or provide a list of issues. ABI, who prefers to use familiar methods and needs comprehensive information, might not immediately think that this page is a step toward finding issues. Additionally, ABI's low computer self-efficacy might make them hesitant to explore further without clear guidance.</t>
+Why: The page primarily displays a repository's file structure and some general information about the project. There is no clear indication or direct link to a list of issues or where to find them. Given Abi's preference for comprehensive information and process-oriented learning, she would likely not consider this page as a step toward finding issues for a newcomer to work on. Additionally, Abi's low computer self-efficacy means she might struggle to navigate or infer where to find the issues without explicit guidance.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down aligns with ABI's information processing style, as it allows them to gather more information comprehensively. The page is structured in a way that encourages scrolling to see more content, and ABI would likely understand that scrolling down could reveal additional relevant information.</t>
+Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to ensure she has not missed any relevant details that might help her find the list of issues. The page is straightforward and not overwhelming, so Abi will likely feel comfortable taking this action to explore further.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, ABI will not find a list of issues or clear instructions on where to find them. The information provided is about the project, technologies used, and contact points, but it does not directly address the subgoal of finding issues for a newcomer to work on. ABI, who prefers comprehensive information and has low computer self-efficacy, might feel uncertain about whether they are making progress toward their goal and may not feel confident that they have done the right thing.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, Abi will not find a direct link or clear information about where to find the list of issues. The page contains general information about the project, technologies used, and contact details, but it does not provide specific guidance on finding issues for newcomers. Given Abi's comprehensive information processing style, she would need explicit instructions or clear indicators to feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy means she might feel uncertain and frustrated without clear direction, making it unlikely that she will feel she has done the right thing or is making progress.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The issue icon on the left side is clearly labeled and visually distinct, making it easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon while scanning the page. Additionally, clicking on a clearly labeled icon aligns with ABI's preference for process-oriented learning, as it provides a straightforward action to take. Therefore, ABI will likely know what to do at this step and feel confident in taking this action.</t>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The issue icon on the left side is not explicitly labeled or explained on the page, which might make Abi hesitant to click on it due to her low computer self-efficacy. Abi prefers process-oriented learning and clear instructions, and without explicit guidance or information about what the icon does, she might not feel confident taking this action. Clicking on an unfamiliar icon without knowing its function would be considered tinkering, which Abi tends to avoid.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on the issue icon, ABI will be directed to a page that clearly lists the issues, which directly aligns with their subgoal of finding a list of issues or where issues are. The page is well-organized, showing open, closed, and all issues, which provides comprehensive information. This will help ABI feel confident that they have done the right thing and are making progress toward their goal. The clear presentation of issues will also support ABI's motivation to accomplish their task efficiently.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: After clicking on the issue icon, Abi will land on a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information that aligns with Abi's information processing style, allowing her to see a detailed list of issues. The clear presentation of issues will help Abi understand that she has made progress toward her goal of finding an issue for a newcomer to work on. The structured and detailed information will also motivate her, as it directly addresses her subgoal.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: Selecting an issue to work on is a logical next step after finding a list of issues, which directly aligns with ABI's overall use case of finding an issue for a newcomer to work on. The page provides a clear list of issues, making it evident that selecting one is the next action to take. This aligns with ABI's motivation to accomplish their task and their comprehensive information processing style, as they can now review the issues and choose one to work on.</t>
+Why: The page clearly lists various issues, including their titles, creation dates, and statuses, which directly aligns with Abi's goal of finding an issue to work on. Given Abi's comprehensive information processing style, she will recognize that selecting an issue from this list is a necessary step toward achieving her overall use case. The structured and detailed presentation of issues will help Abi feel confident that she is making progress and motivate her to continue.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly lists the issues with titles and tags, making it straightforward for ABI to understand that they need to read through the list to find an issue to work on. This aligns with ABI's comprehensive information processing style, as they can gather detailed information about each issue before making a decision. The structured presentation of issues supports ABI's preference for process-oriented learning, making it easy for them to take this action.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page presents a clear and organized list of issues, including their titles, creation dates, and statuses. This layout aligns well with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary details to make an informed decision. The structured presentation of information will help Abi understand what to do at this step and feel confident in taking the action of reading through the list. Additionally, the relevance of the information to her goal of finding an issue to work on will motivate her to proceed.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision just by reading the titles. Additionally, ABI's low computer self-efficacy might make them hesitant to click on individual issues to gather more information, fearing they might not be able to navigate back easily or might miss important details. Therefore, ABI might not feel confident that they are making progress toward their goal or have all the information they need.</t>
+Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. Abi, with her comprehensive information processing style, might need more context or details about each issue to feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy might make her uncertain about whether she has enough information to select an appropriate issue. Without clicking on individual issues to get more details, Abi might not feel she has done the right thing or has all the information she needs.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page clearly lists the issues with clickable titles, making it intuitive for ABI to understand that they need to click on an issue to get more details. This aligns with ABI's comprehensive information processing style, as they can gather more detailed information about each issue by clicking on it. The structured presentation of issues supports ABI's preference for process-oriented learning, making it easy for them to take this action. The clickable nature of the issue titles provides a clear next step, so ABI will know what to do at this step.</t>
+Facets: 2. Information Processing Style, 1. Motivations
+Why: The page clearly lists various issues, and each issue is presented as a clickable item. This layout aligns with Abi's comprehensive information processing style, as she can see that clicking on an issue will likely provide more detailed information. The structured presentation of issues and the intuitive design of clickable items will help Abi understand that selecting an issue is the next logical step. Additionally, the relevance of the information to her goal of finding an issue to work on will motivate her to proceed.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page does not provide comprehensive details that ABI might need to understand the issue fully and decide if it is suitable for a newcomer. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision. Additionally, ABI's low computer self-efficacy might make them hesitant to proceed without clear and detailed information, leading to uncertainty about whether they are making progress toward their goal.</t>
+Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page does not provide detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue comprehensively. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident that she has selected the right issue and is making progress toward her goal. Additionally, Abi's low computer self-efficacy might make her uncertain about whether she has enough information to proceed, leading to frustration and a sense of not making progress.</t>
         </is>
       </c>
     </row>

--- a/outputs/PITTSBURG5.xlsx
+++ b/outputs/PITTSBURG5.xlsx
@@ -426,7 +426,7 @@
         <is>
           <t>Answer: NO
 Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The page primarily displays a repository's file structure and some general information about the project. There is no clear indication or direct link to a list of issues or where to find them. Given Abi's preference for comprehensive information and process-oriented learning, she would likely not consider this page as a step toward finding issues for a newcomer to work on. Additionally, Abi's low computer self-efficacy means she might struggle to navigate or infer where to find the issues without explicit guidance.</t>
+Why: The page shown is a repository page with a list of files and directories, which is not directly indicative of where to find issues. ABI is looking for a list of issues or a section where issues are discussed. The page does not provide clear information or direction on where to find issues, and ABI might not feel confident navigating through the repository files to find the relevant information. Additionally, ABI's comprehensive information processing style means they would need clear and direct information to proceed, which is not provided here.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: Scrolling down the webpage aligns with Abi's comprehensive information processing style. Abi tends to gather all available information before making decisions, and scrolling down is a natural action to ensure she has not missed any relevant details that might help her find the list of issues. The page is straightforward and not overwhelming, so Abi will likely feel comfortable taking this action to explore further.</t>
+Why: Scrolling down the webpage aligns with ABI's comprehensive information processing style. ABI tends to gather all available information before making decisions, and scrolling down is a natural action to see if there is more relevant information further down the page. The page is not overwhelming and provides a clear structure, so ABI will likely feel comfortable taking this action to find more information.</t>
         </is>
       </c>
     </row>
@@ -443,17 +443,17 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After scrolling down the webpage, Abi will not find a direct link or clear information about where to find the list of issues. The page contains general information about the project, technologies used, and contact details, but it does not provide specific guidance on finding issues for newcomers. Given Abi's comprehensive information processing style, she would need explicit instructions or clear indicators to feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy means she might feel uncertain and frustrated without clear direction, making it unlikely that she will feel she has done the right thing or is making progress.</t>
+Facets: 1. Motivations, 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After scrolling down the webpage, ABI will not find a list of issues or clear information on where to find issues. The page primarily contains information about the repository files and some general information about the FLOSSCoach community, but it does not provide specific guidance on finding issues for newcomers. ABI, who prefers comprehensive information and clear instructions, will not feel confident that they are making progress toward their goal of finding an issue to work on. The lack of direct and relevant information will likely leave ABI uncertain about the next steps.</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The issue icon on the left side is not explicitly labeled or explained on the page, which might make Abi hesitant to click on it due to her low computer self-efficacy. Abi prefers process-oriented learning and clear instructions, and without explicit guidance or information about what the icon does, she might not feel confident taking this action. Clicking on an unfamiliar icon without knowing its function would be considered tinkering, which Abi tends to avoid.</t>
+          <t>Answer: YES
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The issue icon on the left side is clearly labeled and visually distinct, making it easy for ABI to identify. Given ABI's comprehensive information processing style, they are likely to notice the icon and understand that it is related to issues. Additionally, the icon is a standard feature in many repositories, which might give ABI the confidence to click on it, knowing it will likely lead to a list of issues. The page provides a clear and straightforward interface, which supports ABI's ability to take this action confidently.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 1. Motivations
-Why: After clicking on the issue icon, Abi will land on a page that clearly lists the issues, including their titles, creation dates, and statuses. This page provides comprehensive information that aligns with Abi's information processing style, allowing her to see a detailed list of issues. The clear presentation of issues will help Abi understand that she has made progress toward her goal of finding an issue for a newcomer to work on. The structured and detailed information will also motivate her, as it directly addresses her subgoal.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on the issue icon, ABI will land on a page that clearly lists issues, which is exactly what they are looking for. The page is well-organized, showing open, closed, and all issues, along with relevant details such as titles, dates, and labels. This provides ABI with comprehensive information, aligning with their information processing style. The clear presentation and relevant content will make ABI feel confident that they are making progress toward their goal of finding an issue to work on.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists various issues, including their titles, creation dates, and statuses, which directly aligns with Abi's goal of finding an issue to work on. Given Abi's comprehensive information processing style, she will recognize that selecting an issue from this list is a necessary step toward achieving her overall use case. The structured and detailed presentation of issues will help Abi feel confident that she is making progress and motivate her to continue.</t>
+Why: Selecting an issue to work on is a logical and necessary step toward achieving the overall use case of finding an issue for a newcomer to work on. The page clearly lists various issues, providing ABI with the information needed to make a selection. Given ABI's motivation to accomplish tasks and their comprehensive information processing style, they will recognize that selecting an issue is a crucial step in the process. The clear presentation of issues on the page supports this understanding.</t>
         </is>
       </c>
     </row>
@@ -480,7 +480,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page presents a clear and organized list of issues, including their titles, creation dates, and statuses. This layout aligns well with Abi's comprehensive information processing style, allowing her to read through the list and gather the necessary details to make an informed decision. The structured presentation of information will help Abi understand what to do at this step and feel confident in taking the action of reading through the list. Additionally, the relevance of the information to her goal of finding an issue to work on will motivate her to proceed.</t>
+Why: The page is well-organized and clearly lists issues with relevant details such as titles, dates, and labels. This structure aligns with ABI's comprehensive information processing style, allowing them to read through the list and gather the necessary information to make an informed decision. Additionally, ABI is motivated to find an issue to work on, and reading through the list is a logical step toward achieving this goal. The clear presentation and relevant content on the page will guide ABI in taking this action confidently.</t>
         </is>
       </c>
     </row>
@@ -489,7 +489,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides a list of issues, it does not offer detailed information about each issue directly on the list page. Abi, with her comprehensive information processing style, might need more context or details about each issue to feel confident that she is making progress toward her goal. Additionally, Abi's low computer self-efficacy might make her uncertain about whether she has enough information to select an appropriate issue. Without clicking on individual issues to get more details, Abi might not feel she has done the right thing or has all the information she needs.</t>
+Why: While the page does list issues, it does not provide detailed information about each issue directly on the list page. ABI, who prefers comprehensive information, might not feel they have all the necessary details to make an informed decision just by reading the titles and brief descriptions. They would likely need to click on individual issues to get more information, which might make them uncertain if they are making progress toward their goal. Additionally, ABI's lower computer self-efficacy might make them hesitant to click on multiple issues without clear guidance, leading to uncertainty about whether they are on the right track.</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style, 1. Motivations
-Why: The page clearly lists various issues, and each issue is presented as a clickable item. This layout aligns with Abi's comprehensive information processing style, as she can see that clicking on an issue will likely provide more detailed information. The structured presentation of issues and the intuitive design of clickable items will help Abi understand that selecting an issue is the next logical step. Additionally, the relevance of the information to her goal of finding an issue to work on will motivate her to proceed.</t>
+Why: The page is well-organized and clearly lists issues with relevant details such as titles, dates, and labels. ABI, who prefers comprehensive information, will likely understand that clicking on an issue will provide more detailed information about it. The clear presentation and structure of the page will guide ABI to take this action confidently. Additionally, ABI is motivated to find an issue to work on, and selecting an issue by clicking on it is a logical step toward achieving this goal. The interface is intuitive enough for ABI to know what to do at this step.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on an issue, Abi lands on a page with limited information about the issue. The page does not provide detailed descriptions, steps to reproduce, or any context that would help Abi understand the issue comprehensively. Given Abi's comprehensive information processing style, she would need more detailed information to feel confident that she has selected the right issue and is making progress toward her goal. Additionally, Abi's low computer self-efficacy might make her uncertain about whether she has enough information to proceed, leading to frustration and a sense of not making progress.</t>
+Why: After clicking on an issue, ABI lands on a page with limited information about the issue. The page shows the issue title, status, and some basic details, but it lacks comprehensive information that ABI might need to determine if this is the right issue to work on. ABI's comprehensive information processing style means they need detailed information to feel confident in their decision. Additionally, the lack of detailed guidance or context might make ABI, who has lower computer self-efficacy, uncertain about whether they are making progress toward their goal. The page does not provide enough information for ABI to feel assured that they did the right thing and are on the right track.</t>
         </is>
       </c>
     </row>
